--- a/datasets/SkipDataset/NHATS_R1_Crosswalk_between_Instruments_and_Codebook_0.xlsx
+++ b/datasets/SkipDataset/NHATS_R1_Crosswalk_between_Instruments_and_Codebook_0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccristbo\Dropbox (University of Michigan)\carlos\Work\Nhats\workNhats\datasets\SkipDataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccris\Dropbox (University of Michigan)\carlos\Work\Nhats\SkipNHATS\datasets\SkipDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7150D115-D0B5-4EC1-A804-23283869941F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item_file_var name_var label  " sheetId="1" r:id="rId1"/>
@@ -22,19 +23,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'item_file_var name_var label  '!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -12140,7 +12128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12303,9 +12291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12343,9 +12331,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12380,7 +12368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12415,7 +12403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12588,15 +12576,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66:G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41784,7 +41772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41830,7 +41818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/datasets/SkipDataset/NHATS_R1_Crosswalk_between_Instruments_and_Codebook_0.xlsx
+++ b/datasets/SkipDataset/NHATS_R1_Crosswalk_between_Instruments_and_Codebook_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccris\Dropbox (University of Michigan)\carlos\Work\Nhats\SkipNHATS\datasets\SkipDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7150D115-D0B5-4EC1-A804-23283869941F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4625599-011F-4ACD-ABF2-7D4D35B0848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item_file_var name_var label  " sheetId="1" r:id="rId1"/>
@@ -12583,8 +12583,8 @@
   <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66:G125"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/datasets/SkipDataset/NHATS_R1_Crosswalk_between_Instruments_and_Codebook_0.xlsx
+++ b/datasets/SkipDataset/NHATS_R1_Crosswalk_between_Instruments_and_Codebook_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccris\Dropbox (University of Michigan)\carlos\Work\Nhats\SkipNHATS\datasets\SkipDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4625599-011F-4ACD-ABF2-7D4D35B0848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D1E13-0BE0-40C2-8FDF-3EA6BDDEFA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="24330" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item_file_var name_var label  " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6194" uniqueCount="4032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6201" uniqueCount="4039">
   <si>
     <t>IS1</t>
   </si>
@@ -12122,7 +12122,28 @@
     <t>HC3_3</t>
   </si>
   <si>
-    <t>HC3</t>
+    <t>HC3_1</t>
+  </si>
+  <si>
+    <t>hc1cancerty2</t>
+  </si>
+  <si>
+    <t>hc1cancerty3</t>
+  </si>
+  <si>
+    <t>hc1cancerty4</t>
+  </si>
+  <si>
+    <t>hc1cancerty5</t>
+  </si>
+  <si>
+    <t>hc1cancerty6</t>
+  </si>
+  <si>
+    <t>hc1cancerty7</t>
+  </si>
+  <si>
+    <t>hc1cancerty8</t>
   </si>
 </sst>
 </file>
@@ -12583,8 +12604,8 @@
   <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13911,7 +13932,9 @@
         <v>3827</v>
       </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>4032</v>
+      </c>
       <c r="H79" s="2" t="s">
         <v>91</v>
       </c>
@@ -13927,7 +13950,9 @@
         <v>3827</v>
       </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>4033</v>
+      </c>
       <c r="H80" s="2" t="s">
         <v>92</v>
       </c>
@@ -13943,7 +13968,9 @@
         <v>3827</v>
       </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>4034</v>
+      </c>
       <c r="H81" s="2" t="s">
         <v>3993</v>
       </c>
@@ -13959,7 +13986,9 @@
         <v>3827</v>
       </c>
       <c r="F82" s="4"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>4035</v>
+      </c>
       <c r="H82" s="2" t="s">
         <v>2586</v>
       </c>
@@ -13975,7 +14004,9 @@
         <v>3827</v>
       </c>
       <c r="F83" s="4"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>4036</v>
+      </c>
       <c r="H83" s="2" t="s">
         <v>2587</v>
       </c>
@@ -13991,7 +14022,9 @@
         <v>3827</v>
       </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>4037</v>
+      </c>
       <c r="H84" s="2" t="s">
         <v>2588</v>
       </c>
@@ -14007,7 +14040,9 @@
         <v>3827</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>4038</v>
+      </c>
       <c r="H85" s="2" t="s">
         <v>93</v>
       </c>
